--- a/2차 기획 및 테이블 구성/요라밍API명세.xlsx
+++ b/2차 기획 및 테이블 구성/요라밍API명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYOTAEK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYOTAEK\Desktop\아주대\Programing_Study\yoraming_taek\2차 기획 및 테이블 구성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD8FEB7-8F2F-45D6-9465-72C411982E65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59B82F2-866C-46B0-84A2-74059FE6DDA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BBF66761-0364-4439-9B91-8813A7266E4C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="571" xr2:uid="{BBF66761-0364-4439-9B91-8813A7266E4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
   <si>
     <t>범주</t>
   </si>
@@ -398,6 +398,18 @@
   </si>
   <si>
     <t>사용자 수강과목, 수강학기별 학점과 평점,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>건의사항 전달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>건의사항 테이블 제작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 키워드 추가 삭제</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -798,18 +810,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7E9B06-7FE6-4C64-BEF6-72E199A6C11B}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B36:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18.296875" customWidth="1"/>
     <col min="3" max="3" width="17.09765625" customWidth="1"/>
-    <col min="5" max="5" width="71.59765625" customWidth="1"/>
-    <col min="6" max="6" width="43" customWidth="1"/>
+    <col min="5" max="5" width="103.796875" customWidth="1"/>
+    <col min="6" max="6" width="59.8984375" customWidth="1"/>
     <col min="7" max="7" width="19.296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1326,6 +1338,21 @@
         <v>83</v>
       </c>
     </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2차 기획 및 테이블 구성/요라밍API명세.xlsx
+++ b/2차 기획 및 테이블 구성/요라밍API명세.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYOTAEK\Desktop\아주대\Programing_Study\yoraming_taek\2차 기획 및 테이블 구성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59B82F2-866C-46B0-84A2-74059FE6DDA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1235D181-F8C7-4C2D-9C02-17B1C8AC9FA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="571" xr2:uid="{BBF66761-0364-4439-9B91-8813A7266E4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
   <si>
     <t>범주</t>
   </si>
@@ -410,6 +410,10 @@
   </si>
   <si>
     <t>공지사항 키워드 추가 삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{success : boolean}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -812,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7E9B06-7FE6-4C64-BEF6-72E199A6C11B}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B36:B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -867,6 +871,9 @@
       <c r="F2" t="s">
         <v>31</v>
       </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">

--- a/2차 기획 및 테이블 구성/요라밍API명세.xlsx
+++ b/2차 기획 및 테이블 구성/요라밍API명세.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYOTAEK\Desktop\아주대\Programing_Study\yoraming_taek\2차 기획 및 테이블 구성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1235D181-F8C7-4C2D-9C02-17B1C8AC9FA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDBC2EB-4628-45CE-9A56-6448CF77EB9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="571" xr2:uid="{BBF66761-0364-4439-9B91-8813A7266E4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
   <si>
     <t>범주</t>
   </si>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>수강과목 읽는 것과 요람 분석이 동시에 일어나는게 좋은지 회의 필요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>yoram</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -153,14 +149,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>사용자ID,학점,과목명,요람ID,구분,수강학기,성적의 리스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자ID, 요람ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/subject/all</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -181,10 +169,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>총학점, 성적, 학과명, 전필, 전선, 대필, 학필 통계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>학점,과목명,요람ID,구분,수강학기,성적</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -414,6 +398,394 @@
   </si>
   <si>
     <t>{success : boolean}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[{    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"user_id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"test@ajou.ac.kr"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"comSbjt_name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체지향프로그래밍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"comSbjt_date"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"G21"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"comSbjt_credit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"comSbjt_grade"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"4.0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"recognitionSbjt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : [{        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"recSbjt_recCategory"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"majorR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"yoram_id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>    }, …]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"user_id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"test@ajou.ac.kr"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"yoram_id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>comSbjt_date 는 1학년 1학기는 G1(학년)1(학기) 하계계절 3, 동계 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>recSbjt_recCategory는 전필 majorR, 전선 majorS, 대필 univR, 학필 basicR 교양 general</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 테이블</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalCredit":int,"totalGrade":int,"majorR":int,"majorS":int,"univR":int,"basicR":int,"general":int,"G21":{"totalCredit":int,"totalGrade":int,"majorR":[]:String,"majorS":[]:String,"univR":[]:String,"basicR":[]:String,"general":[]:String},"gpa":int, "success":boolean}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +793,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +824,53 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0451A5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF098658"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0451A5"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -490,7 +909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,6 +918,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7E9B06-7FE6-4C64-BEF6-72E199A6C11B}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -829,7 +1257,7 @@
     <col min="7" max="7" width="19.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +1280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -866,498 +1294,509 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E7" t="s">
+      <c r="F7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
       <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
         <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s">
         <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/2차 기획 및 테이블 구성/요라밍API명세.xlsx
+++ b/2차 기획 및 테이블 구성/요라밍API명세.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYOTAEK\Desktop\아주대\Programing_Study\yoraming_taek\2차 기획 및 테이블 구성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDBC2EB-4628-45CE-9A56-6448CF77EB9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44FABD7-05CE-45D4-8A67-041D4A535B59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="571" xr2:uid="{BBF66761-0364-4439-9B91-8813A7266E4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="154">
   <si>
     <t>범주</t>
   </si>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>사용자ID, 수강학기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>수강과목 읽기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -169,10 +165,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>학점,과목명,요람ID,구분,수강학기,성적</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>spec</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -787,6 +779,1046 @@
   <si>
     <t>{"totalCredit":int,"totalGrade":int,"majorR":int,"majorS":int,"univR":int,"basicR":int,"general":int,"G21":{"totalCredit":int,"totalGrade":int,"majorR":[]:String,"majorS":[]:String,"univR":[]:String,"basicR":[]:String,"general":[]:String},"gpa":int, "success":boolean}</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 로그인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 있으면 반환 없으면 false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블에 추가 있으면 false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"user_id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"asdf@ajou.ac.kr", "user_name" : "asdfasd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"user_id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"test@ajou.ac.kr"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"comSbjt_date" : "G21"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>{"success":true,"data":[{"comSbjt_id":177,"comSbjt_name":"굿","comSbjt_credit":3,"comSbjt_grade":3,"recognitionSbjt":[{"recSbjt_recCategory":"basicR","yoram_id":2}]}…]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"user_id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"asdf@ajou.ac.kr"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"data":{"user_id":"test@ajou.ac.kr","user_name":"test"}}</t>
+  </si>
+  <si>
+    <t>{"success":true}</t>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 공지사항 읽기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/all</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주대 요람 크롤링</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"num"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"12753"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"12752"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"12751"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"12750"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"12749"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"12748"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"12747"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"12746"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"12745"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"12744"</t>
+    </r>
+  </si>
+  <si>
+    <t>    ],</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"title"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"서관 기계설비공사에 따른 도로 통행금지 안내"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"[국제대학원] 함께 일할 학생인턴을 모집합니다."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"[다산학부대학] 2021-1학기 BSM 기초과학 실험과목 수강 정정 안내"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"[봉사활동] 2021년도 상반기 서울동행 대학(원)생 자원봉사 참여 홍보"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"[인권센터 장애학생지원실] 장애학생지원실에서 함께 근무할 학생인턴을 모집합니다. (3~6월)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"[학습법]신입생을 위한 학습전략 워크숍 안내(~3/9)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"[봉사활동] (영통구청) 지성·감성 쑥쑥! 언택트 학습·정서 멘토링 멘토 모집"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"[정주영 창업경진대회 10] 홍보 및 참여 안내"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"강의페어링 소개 및 웹사이트 안내"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"[봉사활동] 서울시립청소년아동쉼터(서남권) 자원활동가 모집"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"link"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://www.ajou.ac.kr/kr/ajou/notice.do?mode=view&amp;articleNo=107612&amp;article.offset=0&amp;articleLimit=10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://www.ajou.ac.kr/kr/ajou/notice.do?mode=view&amp;articleNo=107610&amp;article.offset=0&amp;articleLimit=10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://www.ajou.ac.kr/kr/ajou/notice.do?mode=view&amp;articleNo=107604&amp;article.offset=0&amp;articleLimit=10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://www.ajou.ac.kr/kr/ajou/notice.do?mode=view&amp;articleNo=107589&amp;article.offset=0&amp;articleLimit=10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://www.ajou.ac.kr/kr/ajou/notice.do?mode=view&amp;articleNo=107588&amp;article.offset=0&amp;articleLimit=10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://www.ajou.ac.kr/kr/ajou/notice.do?mode=view&amp;articleNo=107587&amp;article.offset=0&amp;articleLimit=10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://www.ajou.ac.kr/kr/ajou/notice.do?mode=view&amp;articleNo=107582&amp;article.offset=0&amp;articleLimit=10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://www.ajou.ac.kr/kr/ajou/notice.do?mode=view&amp;articleNo=107580&amp;article.offset=0&amp;articleLimit=10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://www.ajou.ac.kr/kr/ajou/notice.do?mode=view&amp;articleNo=107570&amp;article.offset=0&amp;articleLimit=10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://www.ajou.ac.kr/kr/ajou/notice.do?mode=view&amp;articleNo=107569&amp;article.offset=0&amp;articleLimit=10"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"div"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"기타"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"비교과"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"학사"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"학사"</t>
+    </r>
+  </si>
+  <si>
+    <t>    ]</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
 </sst>
 </file>
@@ -1242,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7E9B06-7FE6-4C64-BEF6-72E199A6C11B}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP97" sqref="AP97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1253,7 +2285,7 @@
     <col min="2" max="2" width="18.296875" customWidth="1"/>
     <col min="3" max="3" width="17.09765625" customWidth="1"/>
     <col min="5" max="5" width="103.796875" customWidth="1"/>
-    <col min="6" max="6" width="59.8984375" customWidth="1"/>
+    <col min="6" max="6" width="157.19921875" customWidth="1"/>
     <col min="7" max="7" width="19.296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1294,21 +2326,21 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1316,487 +2348,906 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
         <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
         <v>62</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
         <v>59</v>
       </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s">
         <v>74</v>
-      </c>
-      <c r="G26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
         <v>73</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>75</v>
-      </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="C34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="3"/>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G58" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G59" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G60" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G61" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G62" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G63" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G64" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G65" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G66" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G67" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G68" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G69" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G70" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G71" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G72" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G73" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G74" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G75" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G76" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G77" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G78" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G79" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G80" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G81" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G82" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G83" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G84" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G85" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G86" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G87" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G88" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G89" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G90" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G91" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G92" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G93" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G94" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G95" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G96" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G97" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G98" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G99" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G100" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G101" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G102" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G103" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G104" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G105" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G106" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
